--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H2">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I2">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J2">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.533617</v>
+        <v>29.04796866666666</v>
       </c>
       <c r="N2">
-        <v>79.60085100000001</v>
+        <v>87.14390599999999</v>
       </c>
       <c r="O2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="P2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
       <c r="Q2">
-        <v>3.712132619151</v>
+        <v>0.2779503295151111</v>
       </c>
       <c r="R2">
-        <v>33.409193572359</v>
+        <v>2.501552965635999</v>
       </c>
       <c r="S2">
-        <v>0.04168832308659276</v>
+        <v>0.00419080128026654</v>
       </c>
       <c r="T2">
-        <v>0.04168832308659275</v>
+        <v>0.004190801280266541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H3">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I3">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J3">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.446252</v>
       </c>
       <c r="O3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="P3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="Q3">
-        <v>4.451072331185333</v>
+        <v>0.3044311233235555</v>
       </c>
       <c r="R3">
-        <v>40.059650980668</v>
+        <v>2.739880109912</v>
       </c>
       <c r="S3">
-        <v>0.04998682979884662</v>
+        <v>0.00459006594308778</v>
       </c>
       <c r="T3">
-        <v>0.04998682979884662</v>
+        <v>0.004590065943087781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H4">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I4">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J4">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374809000000001</v>
+        <v>12.70280433333333</v>
       </c>
       <c r="N4">
-        <v>25.124427</v>
+        <v>38.108413</v>
       </c>
       <c r="O4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="P4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="Q4">
-        <v>1.171660903527</v>
+        <v>0.1215489003975555</v>
       </c>
       <c r="R4">
-        <v>10.544948131743</v>
+        <v>1.093940103578</v>
       </c>
       <c r="S4">
-        <v>0.01315809086188682</v>
+        <v>0.001832655814043108</v>
       </c>
       <c r="T4">
-        <v>0.01315809086188682</v>
+        <v>0.001832655814043108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.139903</v>
+        <v>0.009568666666666666</v>
       </c>
       <c r="H5">
-        <v>0.419709</v>
+        <v>0.028706</v>
       </c>
       <c r="I5">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="J5">
-        <v>0.1990158009562227</v>
+        <v>0.0176680032866696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.944937</v>
+        <v>48.89716966666666</v>
       </c>
       <c r="N5">
-        <v>179.834811</v>
+        <v>146.691509</v>
       </c>
       <c r="O5">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="P5">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
       <c r="Q5">
-        <v>8.386476521111</v>
+        <v>0.4678807174837777</v>
       </c>
       <c r="R5">
-        <v>75.478288689999</v>
+        <v>4.210926457354</v>
       </c>
       <c r="S5">
-        <v>0.09418255720889648</v>
+        <v>0.007054480249272172</v>
       </c>
       <c r="T5">
-        <v>0.09418255720889647</v>
+        <v>0.007054480249272174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.539357</v>
       </c>
       <c r="I6">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J6">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.533617</v>
+        <v>29.04796866666666</v>
       </c>
       <c r="N6">
-        <v>79.60085100000001</v>
+        <v>87.14390599999999</v>
       </c>
       <c r="O6">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="P6">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
       <c r="Q6">
-        <v>13.614903021423</v>
+        <v>14.90506463427133</v>
       </c>
       <c r="R6">
-        <v>122.534127192807</v>
+        <v>134.145581708442</v>
       </c>
       <c r="S6">
-        <v>0.1528992991849309</v>
+        <v>0.224731390175826</v>
       </c>
       <c r="T6">
-        <v>0.1528992991849309</v>
+        <v>0.224731390175826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.539357</v>
       </c>
       <c r="I7">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J7">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.446252</v>
       </c>
       <c r="O7">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="P7">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="Q7">
         <v>16.32509512666267</v>
@@ -883,10 +883,10 @@
         <v>146.925856139964</v>
       </c>
       <c r="S7">
-        <v>0.1833355404784342</v>
+        <v>0.2461419264249208</v>
       </c>
       <c r="T7">
-        <v>0.1833355404784342</v>
+        <v>0.2461419264249208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.539357</v>
       </c>
       <c r="I8">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J8">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.374809000000001</v>
+        <v>12.70280433333333</v>
       </c>
       <c r="N8">
-        <v>25.124427</v>
+        <v>38.108413</v>
       </c>
       <c r="O8">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="P8">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="Q8">
-        <v>4.297273619271</v>
+        <v>6.518050256715666</v>
       </c>
       <c r="R8">
-        <v>38.67546257343901</v>
+        <v>58.66245231044099</v>
       </c>
       <c r="S8">
-        <v>0.0482596257761485</v>
+        <v>0.09827602438298462</v>
       </c>
       <c r="T8">
-        <v>0.04825962577614851</v>
+        <v>0.09827602438298463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.539357</v>
       </c>
       <c r="I9">
-        <v>0.7299256539949538</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="J9">
-        <v>0.7299256539949539</v>
+        <v>0.9474452914149606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.944937</v>
+        <v>48.89716966666666</v>
       </c>
       <c r="N9">
-        <v>179.834811</v>
+        <v>146.691509</v>
       </c>
       <c r="O9">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="P9">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
       <c r="Q9">
-        <v>30.758886128503</v>
+        <v>25.09006680219033</v>
       </c>
       <c r="R9">
-        <v>276.829975156527</v>
+        <v>225.810601219713</v>
       </c>
       <c r="S9">
-        <v>0.3454311885554402</v>
+        <v>0.3782959504312292</v>
       </c>
       <c r="T9">
-        <v>0.3454311885554402</v>
+        <v>0.3782959504312292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H10">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I10">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J10">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.533617</v>
+        <v>29.04796866666666</v>
       </c>
       <c r="N10">
-        <v>79.60085100000001</v>
+        <v>87.14390599999999</v>
       </c>
       <c r="O10">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="P10">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
       <c r="Q10">
-        <v>1.325416080923</v>
+        <v>0.548832319988</v>
       </c>
       <c r="R10">
-        <v>11.928744728307</v>
+        <v>4.939490879891999</v>
       </c>
       <c r="S10">
-        <v>0.01488480597935124</v>
+        <v>0.008275029546717343</v>
       </c>
       <c r="T10">
-        <v>0.01488480597935124</v>
+        <v>0.008275029546717346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H11">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I11">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J11">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.446252</v>
       </c>
       <c r="O11">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="P11">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="Q11">
-        <v>1.589254331773778</v>
+        <v>0.6011204950960001</v>
       </c>
       <c r="R11">
-        <v>14.303288985964</v>
+        <v>5.410084455864</v>
       </c>
       <c r="S11">
-        <v>0.01784778585440331</v>
+        <v>0.009063405482690086</v>
       </c>
       <c r="T11">
-        <v>0.01784778585440331</v>
+        <v>0.009063405482690088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H12">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I12">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J12">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.374809000000001</v>
+        <v>12.70280433333333</v>
       </c>
       <c r="N12">
-        <v>25.124427</v>
+        <v>38.108413</v>
       </c>
       <c r="O12">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="P12">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="Q12">
-        <v>0.418341250771</v>
+        <v>0.240006785074</v>
       </c>
       <c r="R12">
-        <v>3.765071256939</v>
+        <v>2.160061065666</v>
       </c>
       <c r="S12">
-        <v>0.004698093255779059</v>
+        <v>0.003618706780867813</v>
       </c>
       <c r="T12">
-        <v>0.00469809325577906</v>
+        <v>0.003618706780867815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04995233333333333</v>
+        <v>0.018894</v>
       </c>
       <c r="H13">
-        <v>0.149857</v>
+        <v>0.056682</v>
       </c>
       <c r="I13">
-        <v>0.07105854504882349</v>
+        <v>0.0348867052983699</v>
       </c>
       <c r="J13">
-        <v>0.0710585450488235</v>
+        <v>0.03488670529836991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.944937</v>
+        <v>48.89716966666666</v>
       </c>
       <c r="N13">
-        <v>179.834811</v>
+        <v>146.691509</v>
       </c>
       <c r="O13">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="P13">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
       <c r="Q13">
-        <v>2.994389474669667</v>
+        <v>0.923863123682</v>
       </c>
       <c r="R13">
-        <v>26.949505272027</v>
+        <v>8.314768113138001</v>
       </c>
       <c r="S13">
-        <v>0.03362785995928989</v>
+        <v>0.01392956348809466</v>
       </c>
       <c r="T13">
-        <v>0.03362785995928989</v>
+        <v>0.01392956348809466</v>
       </c>
     </row>
   </sheetData>
